--- a/data/tehilim-data/18.xlsx
+++ b/data/tehilim-data/18.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="677">
   <si>
     <t>original</t>
   </si>
@@ -25,7 +25,7 @@
     <t>לַמְנַצֵּחַ</t>
   </si>
   <si>
-    <t>Начальнику хора</t>
+    <t>Руководителю хора</t>
   </si>
   <si>
     <t>לְעֶבֶד</t>
@@ -142,10 +142,13 @@
     <t>ב</t>
   </si>
   <si>
-    <t>אֶרְחָמְךָ יְהוָה</t>
-  </si>
-  <si>
-    <t>Возлюблю Тебя</t>
+    <t>אֶרְחָמְךָ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Возлюблю </t>
+  </si>
+  <si>
+    <t>Тебя</t>
   </si>
   <si>
     <t xml:space="preserve"> יְהוָה</t>
@@ -226,10 +229,10 @@
     <t>Воззвал</t>
   </si>
   <si>
-    <t>אֶקְרָא יְהוָה</t>
-  </si>
-  <si>
-    <t>призываю Господа</t>
+    <t>אֶקְרָא</t>
+  </si>
+  <si>
+    <t>призываю</t>
   </si>
   <si>
     <t>וּמֵאֹיְבַי</t>
@@ -259,10 +262,16 @@
     <t>узы смерти</t>
   </si>
   <si>
-    <t>וְנַחֲלֵי בְלִיָּעַל</t>
-  </si>
-  <si>
-    <t>и потоки негодования</t>
+    <t xml:space="preserve">וְנַחֲלֵי </t>
+  </si>
+  <si>
+    <t xml:space="preserve">и потоки </t>
+  </si>
+  <si>
+    <t>בְלִיָּעַל</t>
+  </si>
+  <si>
+    <t>негодования</t>
   </si>
   <si>
     <t>יְבַעֲתוּנִי</t>
@@ -274,10 +283,16 @@
     <t>ו</t>
   </si>
   <si>
-    <t>חֶבְלֵי שְׁאוֹל</t>
-  </si>
-  <si>
-    <t>Узы шеола</t>
+    <t xml:space="preserve">חֶבְלֵי </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Узы </t>
+  </si>
+  <si>
+    <t>שְׁאוֹל</t>
+  </si>
+  <si>
+    <t>шеола</t>
   </si>
   <si>
     <t>סְבָבוּנִי</t>
@@ -292,10 +307,16 @@
     <t>встретили меня</t>
   </si>
   <si>
-    <t>מוֹקְשֵׁי מָוֶת</t>
-  </si>
-  <si>
-    <t>сети смерти</t>
+    <t xml:space="preserve">מוֹקְשֵׁי </t>
+  </si>
+  <si>
+    <t xml:space="preserve">сети </t>
+  </si>
+  <si>
+    <t>מָוֶת</t>
+  </si>
+  <si>
+    <t>смерти</t>
   </si>
   <si>
     <t>ז</t>
@@ -307,10 +328,22 @@
     <t>В тесноте моей</t>
   </si>
   <si>
-    <t>וְאֶל-אֱלֹהַי</t>
-  </si>
-  <si>
-    <t>и к Богу моему</t>
+    <t xml:space="preserve">אֶקְרָא </t>
+  </si>
+  <si>
+    <t xml:space="preserve">призываю </t>
+  </si>
+  <si>
+    <t>אֱלֹהַי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">и к Богу </t>
+  </si>
+  <si>
+    <t>וְאֶל</t>
+  </si>
+  <si>
+    <t>моему</t>
   </si>
   <si>
     <t>אֲשַׁוֵּעַ</t>
@@ -496,10 +529,16 @@
     <t>и мрак</t>
   </si>
   <si>
-    <t>תַּחַת רַגְלָיו</t>
-  </si>
-  <si>
-    <t>под ногами Его</t>
+    <t xml:space="preserve">תַּחַת </t>
+  </si>
+  <si>
+    <t xml:space="preserve">под </t>
+  </si>
+  <si>
+    <t>רַגְלָיו</t>
+  </si>
+  <si>
+    <t>Его ногами</t>
   </si>
   <si>
     <t>יא</t>
@@ -574,10 +613,16 @@
     <t>мрак воды</t>
   </si>
   <si>
-    <t>עָבֵי שְׁחָקִים</t>
-  </si>
-  <si>
-    <t>густые тучи</t>
+    <t xml:space="preserve">עָבֵי </t>
+  </si>
+  <si>
+    <t xml:space="preserve">густые </t>
+  </si>
+  <si>
+    <t>שְׁחָקִים</t>
+  </si>
+  <si>
+    <t>тучи</t>
   </si>
   <si>
     <t>יג</t>
@@ -595,10 +640,16 @@
     <t>перед Ним</t>
   </si>
   <si>
-    <t>עָבָיו עָבְרוּ</t>
-  </si>
-  <si>
-    <t>прошли тучи Его</t>
+    <t xml:space="preserve">עָבָיו </t>
+  </si>
+  <si>
+    <t>тучи Его</t>
+  </si>
+  <si>
+    <t>עָבְרוּ</t>
+  </si>
+  <si>
+    <t>прошли</t>
   </si>
   <si>
     <t>בָּרָד</t>
@@ -634,10 +685,16 @@
     <t>и Всевышний</t>
   </si>
   <si>
-    <t>יִתֵּן קוֹלוֹ</t>
-  </si>
-  <si>
-    <t>дал голос Свой</t>
+    <t xml:space="preserve">יִתֵּן </t>
+  </si>
+  <si>
+    <t xml:space="preserve">дал </t>
+  </si>
+  <si>
+    <t>קוֹלוֹ</t>
+  </si>
+  <si>
+    <t>голос Свой</t>
   </si>
   <si>
     <t>טו</t>
@@ -712,10 +769,10 @@
     <t>суши</t>
   </si>
   <si>
-    <t>מִגַּעֲרָתְךָ יְהוָה</t>
-  </si>
-  <si>
-    <t>от грозного крика Твоего, Господи</t>
+    <t>מִגַּעֲרָתְךָ</t>
+  </si>
+  <si>
+    <t>от грозного крика Твоего</t>
   </si>
   <si>
     <t>מִנִּשְׁמַת</t>
@@ -724,10 +781,16 @@
     <t>от дыхания</t>
   </si>
   <si>
-    <t>רוּחַ אַפֶּךָ</t>
-  </si>
-  <si>
-    <t>от дуновения гнева Твоего</t>
+    <t xml:space="preserve">רוּחַ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">от дуновения </t>
+  </si>
+  <si>
+    <t>אַפֶּךָ</t>
+  </si>
+  <si>
+    <t>гнева Твоего</t>
   </si>
   <si>
     <t>יז</t>
@@ -757,10 +820,16 @@
     <t>вытянул меня</t>
   </si>
   <si>
-    <t>מִמַּיִם רַבִּים</t>
-  </si>
-  <si>
-    <t>из вод многих</t>
+    <t>מִמַּיִם</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из вод </t>
+  </si>
+  <si>
+    <t>רַבִּים</t>
+  </si>
+  <si>
+    <t>многих</t>
   </si>
   <si>
     <t>יח</t>
@@ -772,10 +841,16 @@
     <t>Избавил меня</t>
   </si>
   <si>
-    <t>מֵאֹיְבִי עָז</t>
-  </si>
-  <si>
-    <t>от врага сильного</t>
+    <t xml:space="preserve">מֵאֹיְבִי </t>
+  </si>
+  <si>
+    <t xml:space="preserve">от врага </t>
+  </si>
+  <si>
+    <t>עָז</t>
+  </si>
+  <si>
+    <t>сильного</t>
   </si>
   <si>
     <t>וּמִשֹּׂנְאַי</t>
@@ -784,10 +859,16 @@
     <t>и от ненавистников моих</t>
   </si>
   <si>
-    <t>כִּי-אָֽמְצוּ מִמֶּנִּי</t>
-  </si>
-  <si>
-    <t>ибо они сильнее меня</t>
+    <t xml:space="preserve">כִּי-אָֽמְצוּ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ибо они сильнее </t>
+  </si>
+  <si>
+    <t>מִמֶּנִּי</t>
+  </si>
+  <si>
+    <t>меня</t>
   </si>
   <si>
     <t>יט</t>
@@ -811,10 +892,16 @@
     <t>и был</t>
   </si>
   <si>
-    <t>לְמִשְׁעָן לִי</t>
-  </si>
-  <si>
-    <t>опорой мне</t>
+    <t>לְמִשְׁעָן</t>
+  </si>
+  <si>
+    <t xml:space="preserve">опорой </t>
+  </si>
+  <si>
+    <t>לִי</t>
+  </si>
+  <si>
+    <t>мне</t>
   </si>
   <si>
     <t>כ</t>
@@ -838,10 +925,22 @@
     <t>спас меня</t>
   </si>
   <si>
-    <t>כִּי חָפֵץ בִּי</t>
-  </si>
-  <si>
-    <t>ибо благоволит ко мне</t>
+    <t>כִּי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ибо </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> חָפֵץ</t>
+  </si>
+  <si>
+    <t>благоволит</t>
+  </si>
+  <si>
+    <t>בִּי</t>
+  </si>
+  <si>
+    <t>ко мне</t>
   </si>
   <si>
     <t>כא</t>
@@ -871,10 +970,10 @@
     <t>рук моих</t>
   </si>
   <si>
-    <t>יָשִׁיב לִי</t>
-  </si>
-  <si>
-    <t>Он воздает мне</t>
+    <t xml:space="preserve">יָשִׁיב </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Он воздает </t>
   </si>
   <si>
     <t>כב</t>
@@ -886,10 +985,13 @@
     <t>Ибо я хранил</t>
   </si>
   <si>
-    <t>דַּרְכֵי יְהוָה</t>
-  </si>
-  <si>
-    <t>пути Господни</t>
+    <t xml:space="preserve">דַּרְכֵי </t>
+  </si>
+  <si>
+    <t xml:space="preserve">пути </t>
+  </si>
+  <si>
+    <t>Господни</t>
   </si>
   <si>
     <t>וְלֹא-רָשַׁעְתִּי</t>
@@ -907,10 +1009,16 @@
     <t>כג</t>
   </si>
   <si>
-    <t>כִּי כָל-מִשְׁפָּטָו</t>
-  </si>
-  <si>
-    <t>Ибо все постановления Его</t>
+    <t xml:space="preserve">כִּי </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ибо </t>
+  </si>
+  <si>
+    <t>כָל-מִשְׁפָּטָו</t>
+  </si>
+  <si>
+    <t>все постановления Его</t>
   </si>
   <si>
     <t>לְנֶגְדִּי</t>
@@ -925,10 +1033,13 @@
     <t>и уставы Его</t>
   </si>
   <si>
-    <t>לֹא-אָסִיר מִמֶּנִּי</t>
-  </si>
-  <si>
-    <t>не отступлю от них</t>
+    <t xml:space="preserve">לֹא-אָסִיר </t>
+  </si>
+  <si>
+    <t>не отступлю</t>
+  </si>
+  <si>
+    <t>от них</t>
   </si>
   <si>
     <t>כד</t>
@@ -973,25 +1084,31 @@
     <t>И воздал</t>
   </si>
   <si>
-    <t>לִי</t>
-  </si>
-  <si>
-    <t>мне</t>
-  </si>
-  <si>
-    <t>לְנֶגֶד עֵינָיו</t>
-  </si>
-  <si>
-    <t>перед очами Его</t>
+    <t xml:space="preserve">לְנֶגֶד </t>
+  </si>
+  <si>
+    <t xml:space="preserve">перед </t>
+  </si>
+  <si>
+    <t>עֵינָיו</t>
+  </si>
+  <si>
+    <t>очами Его</t>
   </si>
   <si>
     <t>כו</t>
   </si>
   <si>
-    <t>עִם-חָסִיד</t>
-  </si>
-  <si>
-    <t>С милостивым</t>
+    <t>עִם</t>
+  </si>
+  <si>
+    <t>С</t>
+  </si>
+  <si>
+    <t>חָסִיד</t>
+  </si>
+  <si>
+    <t>милостивым</t>
   </si>
   <si>
     <t>תִּתְחַסָּד</t>
@@ -1000,10 +1117,13 @@
     <t>поступаешь милостиво</t>
   </si>
   <si>
-    <t>עִם-גְּבַר</t>
-  </si>
-  <si>
-    <t>с мужем</t>
+    <t>с</t>
+  </si>
+  <si>
+    <t>גְּבַר</t>
+  </si>
+  <si>
+    <t>мужем</t>
   </si>
   <si>
     <t>תָּמִים</t>
@@ -1021,10 +1141,10 @@
     <t>כז</t>
   </si>
   <si>
-    <t>עִם-נָבָר</t>
-  </si>
-  <si>
-    <t>С чистым</t>
+    <t>נָבָר</t>
+  </si>
+  <si>
+    <t>чистым</t>
   </si>
   <si>
     <t>תִּתְבָּרָר</t>
@@ -1066,10 +1186,16 @@
     <t>спасаешь</t>
   </si>
   <si>
-    <t>וְעֵינַיִם רָמוֹת</t>
-  </si>
-  <si>
-    <t>а глаза гордые</t>
+    <t>וְעֵינַיִם</t>
+  </si>
+  <si>
+    <t xml:space="preserve">а глаза </t>
+  </si>
+  <si>
+    <t>רָמוֹת</t>
+  </si>
+  <si>
+    <t>гордые</t>
   </si>
   <si>
     <t>תַּשְׁפִּיל</t>
@@ -1093,9 +1219,6 @@
     <t>светильник мой</t>
   </si>
   <si>
-    <t>אֱלֹהַי</t>
-  </si>
-  <si>
     <t>יַגִּיהַּ</t>
   </si>
   <si>
@@ -1129,10 +1252,16 @@
     <t>а с Богом моим</t>
   </si>
   <si>
-    <t>אֲדַלֶּג-שׁוּר</t>
-  </si>
-  <si>
-    <t>перепрыгну стену</t>
+    <t>אֲדַלֶּג</t>
+  </si>
+  <si>
+    <t xml:space="preserve">перепрыгну </t>
+  </si>
+  <si>
+    <t>שׁוּר</t>
+  </si>
+  <si>
+    <t>стену</t>
   </si>
   <si>
     <t>לא</t>
@@ -1144,16 +1273,19 @@
     <t>Бог</t>
   </si>
   <si>
-    <t>תָּמִים דַּרְכּוֹ</t>
-  </si>
-  <si>
-    <t>Непорочен путь Его</t>
-  </si>
-  <si>
-    <t>אִמְרַת-יְהוָה</t>
-  </si>
-  <si>
-    <t>Речение Господа</t>
+    <t xml:space="preserve">Непорочен </t>
+  </si>
+  <si>
+    <t>דַּרְכּוֹ</t>
+  </si>
+  <si>
+    <t>путь Его</t>
+  </si>
+  <si>
+    <t>אִמְרַת</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Речение </t>
   </si>
   <si>
     <t>צְרוּפָה</t>
@@ -1174,10 +1306,16 @@
     <t>Он для всех</t>
   </si>
   <si>
-    <t>הַחֹסִים בּוֹ</t>
-  </si>
-  <si>
-    <t>уповающих на Него</t>
+    <t>הַחֹסִים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">уповающих </t>
+  </si>
+  <si>
+    <t>בּוֹ</t>
+  </si>
+  <si>
+    <t>на Него</t>
   </si>
   <si>
     <t>לב</t>
@@ -1189,27 +1327,39 @@
     <t>Ибо кто</t>
   </si>
   <si>
-    <t>אֱלוֹהַּ מִבַּלְעֲדֵי יְהוָה</t>
-  </si>
-  <si>
-    <t>Бог кроме Господа</t>
-  </si>
-  <si>
-    <t>וּמִי צוּר</t>
-  </si>
-  <si>
-    <t>и кто крепость</t>
+    <t>אֱלוֹהַּ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бог </t>
+  </si>
+  <si>
+    <t>מִבַּלְעֲדֵי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кроме </t>
+  </si>
+  <si>
+    <t xml:space="preserve">וּמִי </t>
+  </si>
+  <si>
+    <t xml:space="preserve">и кто </t>
+  </si>
+  <si>
+    <t>צוּר</t>
+  </si>
+  <si>
+    <t>крепость</t>
   </si>
   <si>
     <t>זוּלָתִי</t>
   </si>
   <si>
-    <t>кроме Бога нашего</t>
-  </si>
-  <si>
     <t>אֱלֹהֵינוּ</t>
   </si>
   <si>
+    <t>Бога нашего</t>
+  </si>
+  <si>
     <t>לג</t>
   </si>
   <si>
@@ -1231,10 +1381,13 @@
     <t>и дает</t>
   </si>
   <si>
-    <t>תָּמִים דַּרְכִּי</t>
-  </si>
-  <si>
-    <t>непорочность пути моему</t>
+    <t xml:space="preserve">непорочность </t>
+  </si>
+  <si>
+    <t>דַּרְכִּי</t>
+  </si>
+  <si>
+    <t>пути моему</t>
   </si>
   <si>
     <t>לד</t>
@@ -1294,10 +1447,16 @@
     <t>и согнет</t>
   </si>
   <si>
-    <t>קֶשֶׁת-נְחוּשָׁה</t>
-  </si>
-  <si>
-    <t>лук медный</t>
+    <t>קֶשֶׁת</t>
+  </si>
+  <si>
+    <t xml:space="preserve">лук </t>
+  </si>
+  <si>
+    <t>נְחוּשָׁה</t>
+  </si>
+  <si>
+    <t>медный</t>
   </si>
   <si>
     <t>זְרֹעֹתָי</t>
@@ -1315,10 +1474,13 @@
     <t>И дал Ты мне</t>
   </si>
   <si>
-    <t>מָגֵן יִשְׁעֶךָ</t>
-  </si>
-  <si>
-    <t>щит спасения Твоего</t>
+    <t xml:space="preserve">щит </t>
+  </si>
+  <si>
+    <t>יִשְׁעֶךָ</t>
+  </si>
+  <si>
+    <t>спасения Твоего</t>
   </si>
   <si>
     <t>וִימִינְךָ</t>
@@ -1354,10 +1516,16 @@
     <t>Ты сделал широкой</t>
   </si>
   <si>
-    <t>צַעֲדִי תַחְתָּי</t>
-  </si>
-  <si>
-    <t>шаг мой подо мной</t>
+    <t xml:space="preserve">צַעֲדִי </t>
+  </si>
+  <si>
+    <t xml:space="preserve">шаг мой </t>
+  </si>
+  <si>
+    <t>תַחְתָּי</t>
+  </si>
+  <si>
+    <t>подо мной</t>
   </si>
   <si>
     <t>וְלֹא-מָעֲדוּ</t>
@@ -1390,16 +1558,28 @@
     <t>и настигаю их</t>
   </si>
   <si>
-    <t>וְלֹא-אָשׁוּב</t>
-  </si>
-  <si>
-    <t>и не возвращаюсь</t>
-  </si>
-  <si>
-    <t>עַד-כַּלּוֹתָם</t>
-  </si>
-  <si>
-    <t>пока не истреблю их</t>
+    <t>וְלֹא</t>
+  </si>
+  <si>
+    <t>и не</t>
+  </si>
+  <si>
+    <t>אָשׁוּב</t>
+  </si>
+  <si>
+    <t>возвращаюсь</t>
+  </si>
+  <si>
+    <t>עַד</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пока не </t>
+  </si>
+  <si>
+    <t>כַּלּוֹתָם</t>
+  </si>
+  <si>
+    <t>истреблю их</t>
   </si>
   <si>
     <t>לט</t>
@@ -1429,10 +1609,7 @@
     <t>падут</t>
   </si>
   <si>
-    <t>תַּחַת רַגְלָי</t>
-  </si>
-  <si>
-    <t>под ноги мои</t>
+    <t>רַגְלָי</t>
   </si>
   <si>
     <t>מ</t>
@@ -1456,10 +1633,16 @@
     <t>покоряешь</t>
   </si>
   <si>
-    <t>קָמַי תַּחְתָּי</t>
-  </si>
-  <si>
-    <t>восстающих на меня</t>
+    <t xml:space="preserve">קָמַי </t>
+  </si>
+  <si>
+    <t xml:space="preserve">восстающих </t>
+  </si>
+  <si>
+    <t>תַּחְתָּי</t>
+  </si>
+  <si>
+    <t>на меня</t>
   </si>
   <si>
     <t>מא</t>
@@ -1492,9 +1675,6 @@
     <t>אַצְמִיתֵם</t>
   </si>
   <si>
-    <t>истреблю их</t>
-  </si>
-  <si>
     <t>מב</t>
   </si>
   <si>
@@ -1516,10 +1696,13 @@
     <t>к Господу</t>
   </si>
   <si>
-    <t>וְלֹא עָנָם</t>
-  </si>
-  <si>
-    <t>и не отвечает им</t>
+    <t xml:space="preserve">и не </t>
+  </si>
+  <si>
+    <t>עָנָם</t>
+  </si>
+  <si>
+    <t>отвечает им</t>
   </si>
   <si>
     <t>מג</t>
@@ -1576,10 +1759,16 @@
     <t>поставляешь меня</t>
   </si>
   <si>
-    <t>לְרֹאשׁ גּוֹיִם</t>
-  </si>
-  <si>
-    <t>во главу народов</t>
+    <t>לְרֹאשׁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">во главу </t>
+  </si>
+  <si>
+    <t>גּוֹיִם</t>
+  </si>
+  <si>
+    <t>народов</t>
   </si>
   <si>
     <t>עַם</t>
@@ -1588,10 +1777,16 @@
     <t>народ, которого</t>
   </si>
   <si>
-    <t>לֹא-יָדַעְתִּי</t>
-  </si>
-  <si>
-    <t>я не знал</t>
+    <t>לֹא</t>
+  </si>
+  <si>
+    <t xml:space="preserve">я не </t>
+  </si>
+  <si>
+    <t>יָדַעְתִּי</t>
+  </si>
+  <si>
+    <t>знал</t>
   </si>
   <si>
     <t>יַעַבְדוּנִי</t>
@@ -1663,10 +1858,10 @@
     <t>Жив Господь</t>
   </si>
   <si>
-    <t>וּבָרוּךְ צוּרִי</t>
-  </si>
-  <si>
-    <t>и благословен твердыня моя</t>
+    <t xml:space="preserve">וּבָרוּךְ </t>
+  </si>
+  <si>
+    <t>и благословен</t>
   </si>
   <si>
     <t>וְיָרוּם</t>
@@ -1675,19 +1870,31 @@
     <t>и возносится</t>
   </si>
   <si>
-    <t>אֱלֹהֵי יִשְׁעִי</t>
-  </si>
-  <si>
-    <t>Бог спасения моего</t>
+    <t>אֱלֹהֵי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бог спасения </t>
+  </si>
+  <si>
+    <t>יִשְׁעִי</t>
+  </si>
+  <si>
+    <t>моего</t>
   </si>
   <si>
     <t>מח</t>
   </si>
   <si>
-    <t>הַנּוֹתֵן נְקָמוֹת לִי</t>
-  </si>
-  <si>
-    <t>дающий мне возмездие</t>
+    <t>הַנּוֹתֵן</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дающий </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> נְקָמוֹת </t>
+  </si>
+  <si>
+    <t>возмездие</t>
   </si>
   <si>
     <t>וַיַּדְבֵּר</t>
@@ -1702,12 +1909,6 @@
     <t>народы</t>
   </si>
   <si>
-    <t>תַּחְתָּי</t>
-  </si>
-  <si>
-    <t>подо мной</t>
-  </si>
-  <si>
     <t>מט</t>
   </si>
   <si>
@@ -1723,10 +1924,16 @@
     <t>от врагов моих</t>
   </si>
   <si>
-    <t>אַף תְּרוֹמְמֵנִי</t>
-  </si>
-  <si>
-    <t>также возносящий меня</t>
+    <t xml:space="preserve">אַף </t>
+  </si>
+  <si>
+    <t xml:space="preserve">также </t>
+  </si>
+  <si>
+    <t>תְּרוֹמְמֵנִי</t>
+  </si>
+  <si>
+    <t>возносящий меня</t>
   </si>
   <si>
     <t>מִמְּקָמַי</t>
@@ -1792,10 +1999,16 @@
     <t>Возвращающий</t>
   </si>
   <si>
-    <t>יְשׁוּעוֹת מַלְכּוֹ</t>
-  </si>
-  <si>
-    <t>спасения царю Своему</t>
+    <t>יְשׁוּעוֹת</t>
+  </si>
+  <si>
+    <t xml:space="preserve">спасения </t>
+  </si>
+  <si>
+    <t>מַלְכּוֹ</t>
+  </si>
+  <si>
+    <t>царю Своему</t>
   </si>
   <si>
     <t>וְעֹשֶׂה</t>
@@ -1835,7 +2048,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1854,6 +2067,14 @@
     <font>
       <sz val="10.0"/>
       <color rgb="FF0D0D0D"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1877,7 +2098,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1901,10 +2122,34 @@
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2330,137 +2575,137 @@
       <c r="C23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="B27" s="7">
-        <v>3.0</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>28</v>
+        <v>50</v>
+      </c>
+      <c r="B28" s="7">
+        <v>3.0</v>
       </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>51</v>
+        <v>7</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="B38" s="7">
-        <v>4.0</v>
       </c>
       <c r="C38" s="2"/>
     </row>
@@ -2468,169 +2713,169 @@
       <c r="A39" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>70</v>
+      <c r="B39" s="7">
+        <v>4.0</v>
       </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="6" t="s">
+      <c r="B41" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>76</v>
+      <c r="A42" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" s="7">
-        <v>5.0</v>
+        <v>74</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="C44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="B45" s="7">
+        <v>5.0</v>
       </c>
       <c r="C45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="C46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="6" t="s">
+      <c r="B49" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="B48" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="C49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="6" t="s">
+      <c r="B53" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B53" s="7">
-        <v>7.0</v>
       </c>
       <c r="C53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="C54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>72</v>
+        <v>96</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="C55" s="2"/>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="9" t="s">
         <v>99</v>
       </c>
       <c r="C56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C57" s="2"/>
@@ -2639,503 +2884,503 @@
       <c r="A58" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>103</v>
+      <c r="B58" s="7">
+        <v>7.0</v>
       </c>
       <c r="C58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="7" t="s">
+      <c r="B60" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C60" s="2"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="7" t="s">
+      <c r="B62" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="2"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="7" t="s">
+      <c r="B63" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C62" s="2"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="7" t="s">
+      <c r="B64" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="7" t="s">
+      <c r="B65" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C64" s="2"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="7" t="s">
+      <c r="B66" s="12" t="s">
         <v>116</v>
-      </c>
-      <c r="B65" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>118</v>
       </c>
       <c r="C66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="C67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="C68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="C69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="C70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="C71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="B72" s="7">
+        <v>8.0</v>
       </c>
       <c r="C72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="C73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B74" s="7">
-        <v>9.0</v>
+        <v>130</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="C74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="C75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="C76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>137</v>
       </c>
       <c r="C77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="C78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="C79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>143</v>
       </c>
       <c r="C80" s="2"/>
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="B81" s="7">
+        <v>9.0</v>
       </c>
       <c r="C81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="C82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="C83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B84" s="7">
-        <v>10.0</v>
+        <v>149</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="C84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="C85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="C86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="C87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="C88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="C89" s="2"/>
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B90" s="7">
-        <v>11.0</v>
+        <v>161</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>162</v>
       </c>
       <c r="C90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="B91" s="7">
+        <v>10.0</v>
       </c>
       <c r="C91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="C92" s="2"/>
     </row>
     <row r="93">
       <c r="A93" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="C93" s="2"/>
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="C94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B96" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C95" s="2"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="7" t="s">
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B96" s="7">
-        <v>12.0</v>
-      </c>
-      <c r="C96" s="2"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="7" t="s">
+      <c r="B97" s="16" t="s">
         <v>175</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>176</v>
       </c>
       <c r="C97" s="2"/>
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
+      </c>
+      <c r="B98" s="7">
+        <v>11.0</v>
       </c>
       <c r="C98" s="2"/>
     </row>
     <row r="99">
       <c r="A99" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="C99" s="2"/>
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="C100" s="2"/>
     </row>
     <row r="101">
       <c r="A101" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>182</v>
       </c>
       <c r="C101" s="2"/>
     </row>
     <row r="102">
       <c r="A102" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="C102" s="2"/>
     </row>
     <row r="103">
       <c r="A103" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>186</v>
       </c>
       <c r="C103" s="2"/>
     </row>
     <row r="104">
       <c r="A104" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B104" s="7">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C104" s="2"/>
     </row>
     <row r="105">
       <c r="A105" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="C105" s="2"/>
     </row>
     <row r="106">
       <c r="A106" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>191</v>
       </c>
       <c r="C106" s="2"/>
     </row>
     <row r="107">
       <c r="A107" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>193</v>
       </c>
       <c r="C107" s="2"/>
     </row>
     <row r="108">
       <c r="A108" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="C108" s="2"/>
     </row>
     <row r="109">
       <c r="A109" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>197</v>
       </c>
       <c r="C109" s="2"/>
     </row>
     <row r="110">
       <c r="A110" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B110" s="7">
-        <v>14.0</v>
-      </c>
-      <c r="C110" s="2"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="7" t="s">
+      <c r="B111" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="C111" s="2"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C111" s="2"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="7" t="s">
+      <c r="B112" s="11" t="s">
         <v>203</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="C112" s="2"/>
     </row>
     <row r="113">
       <c r="A113" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>28</v>
+        <v>204</v>
+      </c>
+      <c r="B113" s="7">
+        <v>13.0</v>
       </c>
       <c r="C113" s="2"/>
     </row>
@@ -3143,7 +3388,7 @@
       <c r="A114" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C114" s="2"/>
@@ -3152,349 +3397,349 @@
       <c r="A115" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="12" t="s">
         <v>208</v>
       </c>
       <c r="C115" s="2"/>
     </row>
     <row r="116">
-      <c r="A116" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>197</v>
+      <c r="A116" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="C116" s="2"/>
     </row>
     <row r="117">
-      <c r="A117" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>199</v>
+      <c r="A117" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>212</v>
       </c>
       <c r="C117" s="2"/>
     </row>
     <row r="118">
       <c r="A118" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B118" s="7">
-        <v>15.0</v>
+        <v>213</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="C118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="C119" s="2"/>
     </row>
     <row r="120">
       <c r="A120" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>213</v>
+        <v>217</v>
+      </c>
+      <c r="B120" s="7">
+        <v>14.0</v>
       </c>
       <c r="C120" s="2"/>
     </row>
     <row r="121">
       <c r="A121" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>215</v>
+        <v>218</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="C121" s="2"/>
     </row>
     <row r="122">
       <c r="A122" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="C122" s="2"/>
     </row>
     <row r="123">
       <c r="A123" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>219</v>
+        <v>7</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="C123" s="2"/>
     </row>
     <row r="124">
       <c r="A124" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="C124" s="2"/>
     </row>
     <row r="125">
-      <c r="A125" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="B125" s="7">
-        <v>16.0</v>
+      <c r="A125" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="C125" s="2"/>
     </row>
     <row r="126">
-      <c r="A126" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>224</v>
+      <c r="A126" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>227</v>
       </c>
       <c r="C126" s="2"/>
     </row>
     <row r="127">
       <c r="A127" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>226</v>
+        <v>213</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="C127" s="2"/>
     </row>
     <row r="128">
       <c r="A128" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>228</v>
+        <v>215</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="C128" s="2"/>
     </row>
     <row r="129">
       <c r="A129" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
+      </c>
+      <c r="B129" s="7">
+        <v>15.0</v>
       </c>
       <c r="C129" s="2"/>
     </row>
     <row r="130">
       <c r="A130" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>230</v>
       </c>
       <c r="C130" s="2"/>
     </row>
     <row r="131">
       <c r="A131" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>234</v>
+        <v>231</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>232</v>
       </c>
       <c r="C131" s="2"/>
     </row>
     <row r="132">
       <c r="A132" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>234</v>
       </c>
       <c r="C132" s="2"/>
     </row>
     <row r="133">
       <c r="A133" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>236</v>
       </c>
       <c r="C133" s="2"/>
     </row>
     <row r="134">
       <c r="A134" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="B134" s="7">
-        <v>17.0</v>
+        <v>237</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>238</v>
       </c>
       <c r="C134" s="2"/>
     </row>
     <row r="135">
       <c r="A135" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B135" s="13" t="s">
         <v>240</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>241</v>
       </c>
       <c r="C135" s="2"/>
     </row>
     <row r="136">
       <c r="A136" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
+      </c>
+      <c r="B136" s="7">
+        <v>16.0</v>
       </c>
       <c r="C136" s="2"/>
     </row>
     <row r="137">
       <c r="A137" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>243</v>
       </c>
       <c r="C137" s="2"/>
     </row>
     <row r="138">
       <c r="A138" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>245</v>
       </c>
       <c r="C138" s="2"/>
     </row>
     <row r="139">
       <c r="A139" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>247</v>
       </c>
       <c r="C139" s="2"/>
     </row>
     <row r="140">
       <c r="A140" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="B140" s="7">
-        <v>18.0</v>
+        <v>248</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>249</v>
       </c>
       <c r="C140" s="2"/>
     </row>
     <row r="141">
       <c r="A141" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B141" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="B141" s="8" t="s">
+      <c r="C141" s="2"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C141" s="2"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="7" t="s">
+      <c r="B142" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="B142" s="9" t="s">
-        <v>254</v>
-      </c>
       <c r="C142" s="2"/>
     </row>
     <row r="143">
-      <c r="A143" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>256</v>
+      <c r="A143" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="C143" s="2"/>
     </row>
     <row r="144">
       <c r="A144" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C144" s="2"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B145" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="C145" s="2"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C144" s="2"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="7" t="s">
+      <c r="B146" s="11" t="s">
         <v>259</v>
-      </c>
-      <c r="B145" s="7">
-        <v>19.0</v>
-      </c>
-      <c r="C145" s="2"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>261</v>
       </c>
       <c r="C146" s="2"/>
     </row>
     <row r="147">
       <c r="A147" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>263</v>
+        <v>260</v>
+      </c>
+      <c r="B147" s="7">
+        <v>17.0</v>
       </c>
       <c r="C147" s="2"/>
     </row>
     <row r="148">
       <c r="A148" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>265</v>
+        <v>261</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>262</v>
       </c>
       <c r="C148" s="2"/>
     </row>
     <row r="149">
       <c r="A149" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>28</v>
+        <v>263</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>264</v>
       </c>
       <c r="C149" s="2"/>
     </row>
     <row r="150">
       <c r="A150" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B150" s="12" t="s">
         <v>266</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>267</v>
       </c>
       <c r="C150" s="2"/>
     </row>
     <row r="151">
       <c r="A151" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B151" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="B151" s="7">
-        <v>20.0</v>
-      </c>
       <c r="C151" s="2"/>
     </row>
     <row r="152">
-      <c r="A152" s="7" t="s">
+      <c r="A152" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="B152" s="8" t="s">
+      <c r="B152" s="9" t="s">
         <v>270</v>
       </c>
       <c r="C152" s="2"/>
     </row>
     <row r="153">
-      <c r="A153" s="7" t="s">
+      <c r="A153" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B153" s="11" t="s">
         <v>272</v>
       </c>
       <c r="C153" s="2"/>
@@ -3503,112 +3748,112 @@
       <c r="A154" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="B154" s="8" t="s">
-        <v>274</v>
+      <c r="B154" s="7">
+        <v>18.0</v>
       </c>
       <c r="C154" s="2"/>
     </row>
     <row r="155">
       <c r="A155" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B155" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="C155" s="2"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C155" s="2"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="7" t="s">
+      <c r="B156" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="B156" s="7">
-        <v>21.0</v>
-      </c>
       <c r="C156" s="2"/>
     </row>
     <row r="157">
-      <c r="A157" s="7" t="s">
+      <c r="A157" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="11" t="s">
         <v>279</v>
       </c>
       <c r="C157" s="2"/>
     </row>
     <row r="158">
       <c r="A158" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>28</v>
+        <v>280</v>
+      </c>
+      <c r="B158" s="13" t="s">
+        <v>281</v>
       </c>
       <c r="C158" s="2"/>
     </row>
     <row r="159">
-      <c r="A159" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>281</v>
+      <c r="A159" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B159" s="14" t="s">
+        <v>283</v>
       </c>
       <c r="C159" s="2"/>
     </row>
     <row r="160">
-      <c r="A160" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>283</v>
+      <c r="A160" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>285</v>
       </c>
       <c r="C160" s="2"/>
     </row>
     <row r="161">
       <c r="A161" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
+      </c>
+      <c r="B161" s="7">
+        <v>19.0</v>
       </c>
       <c r="C161" s="2"/>
     </row>
     <row r="162">
       <c r="A162" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="B162" s="8" t="s">
         <v>287</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>288</v>
       </c>
       <c r="C162" s="2"/>
     </row>
     <row r="163">
       <c r="A163" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B163" s="7">
-        <v>22.0</v>
+        <v>289</v>
+      </c>
+      <c r="B163" s="13" t="s">
+        <v>290</v>
       </c>
       <c r="C163" s="2"/>
     </row>
     <row r="164">
       <c r="A164" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>292</v>
       </c>
       <c r="C164" s="2"/>
     </row>
     <row r="165">
       <c r="A165" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>292</v>
+        <v>7</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="C165" s="2"/>
     </row>
     <row r="166">
-      <c r="A166" s="7" t="s">
+      <c r="A166" s="8" t="s">
         <v>293</v>
       </c>
       <c r="B166" s="9" t="s">
@@ -3617,10 +3862,10 @@
       <c r="C166" s="2"/>
     </row>
     <row r="167">
-      <c r="A167" s="7" t="s">
+      <c r="A167" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="B167" s="8" t="s">
+      <c r="B167" s="11" t="s">
         <v>296</v>
       </c>
       <c r="C167" s="2"/>
@@ -3630,7 +3875,7 @@
         <v>297</v>
       </c>
       <c r="B168" s="7">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
       <c r="C168" s="2"/>
     </row>
@@ -3638,7 +3883,7 @@
       <c r="A169" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B169" s="9" t="s">
+      <c r="B169" s="12" t="s">
         <v>299</v>
       </c>
       <c r="C169" s="2"/>
@@ -3647,7 +3892,7 @@
       <c r="A170" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="B170" s="8" t="s">
+      <c r="B170" s="12" t="s">
         <v>301</v>
       </c>
       <c r="C170" s="2"/>
@@ -3656,44 +3901,44 @@
       <c r="A171" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B171" s="12" t="s">
         <v>303</v>
       </c>
       <c r="C171" s="2"/>
     </row>
     <row r="172">
-      <c r="A172" s="7" t="s">
+      <c r="A172" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B172" s="9" t="s">
+      <c r="B172" s="14" t="s">
         <v>305</v>
       </c>
       <c r="C172" s="2"/>
     </row>
     <row r="173">
-      <c r="A173" s="7" t="s">
+      <c r="A173" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="B173" s="7">
-        <v>24.0</v>
+      <c r="B173" s="14" t="s">
+        <v>307</v>
       </c>
       <c r="C173" s="2"/>
     </row>
     <row r="174">
-      <c r="A174" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="B174" s="8" t="s">
+      <c r="A174" s="10" t="s">
         <v>308</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>309</v>
       </c>
       <c r="C174" s="2"/>
     </row>
     <row r="175">
       <c r="A175" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="B175" s="8" t="s">
         <v>310</v>
+      </c>
+      <c r="B175" s="7">
+        <v>21.0</v>
       </c>
       <c r="C175" s="2"/>
     </row>
@@ -3701,1565 +3946,2035 @@
       <c r="A176" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B176" s="8" t="s">
+      <c r="B176" s="12" t="s">
         <v>312</v>
       </c>
       <c r="C176" s="2"/>
     </row>
     <row r="177">
       <c r="A177" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B177" s="8" t="s">
-        <v>314</v>
+        <v>7</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="C177" s="2"/>
     </row>
     <row r="178">
       <c r="A178" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
+      </c>
+      <c r="B178" s="12" t="s">
+        <v>314</v>
       </c>
       <c r="C178" s="2"/>
     </row>
     <row r="179">
       <c r="A179" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="B179" s="7">
-        <v>25.0</v>
+        <v>315</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>316</v>
       </c>
       <c r="C179" s="2"/>
     </row>
     <row r="180">
       <c r="A180" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B180" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="B180" s="8" t="s">
+      <c r="C180" s="2"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="C180" s="2"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B181" s="8" t="s">
-        <v>28</v>
+      <c r="B181" s="9" t="s">
+        <v>320</v>
       </c>
       <c r="C181" s="2"/>
     </row>
     <row r="182">
-      <c r="A182" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="B182" s="8" t="s">
-        <v>321</v>
+      <c r="A182" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>296</v>
       </c>
       <c r="C182" s="2"/>
     </row>
     <row r="183">
       <c r="A183" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="B183" s="8" t="s">
-        <v>281</v>
+        <v>321</v>
+      </c>
+      <c r="B183" s="7">
+        <v>22.0</v>
       </c>
       <c r="C183" s="2"/>
     </row>
     <row r="184">
       <c r="A184" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="B184" s="8" t="s">
-        <v>283</v>
+        <v>322</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>323</v>
       </c>
       <c r="C184" s="2"/>
     </row>
     <row r="185">
-      <c r="A185" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="B185" s="8" t="s">
-        <v>285</v>
+      <c r="A185" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="C185" s="2"/>
     </row>
     <row r="186">
-      <c r="A186" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="B186" s="8" t="s">
-        <v>323</v>
+      <c r="A186" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>326</v>
       </c>
       <c r="C186" s="2"/>
     </row>
     <row r="187">
       <c r="A187" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="B187" s="7">
-        <v>26.0</v>
+        <v>327</v>
+      </c>
+      <c r="B187" s="13" t="s">
+        <v>328</v>
       </c>
       <c r="C187" s="2"/>
     </row>
     <row r="188">
       <c r="A188" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="B188" s="8" t="s">
-        <v>326</v>
+        <v>329</v>
+      </c>
+      <c r="B188" s="12" t="s">
+        <v>330</v>
       </c>
       <c r="C188" s="2"/>
     </row>
     <row r="189">
       <c r="A189" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="B189" s="9" t="s">
-        <v>328</v>
+        <v>331</v>
+      </c>
+      <c r="B189" s="7">
+        <v>23.0</v>
       </c>
       <c r="C189" s="2"/>
     </row>
     <row r="190">
-      <c r="A190" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>330</v>
+      <c r="A190" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B190" s="14" t="s">
+        <v>333</v>
       </c>
       <c r="C190" s="2"/>
     </row>
     <row r="191">
-      <c r="A191" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="B191" s="8" t="s">
-        <v>332</v>
+      <c r="A191" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>335</v>
       </c>
       <c r="C191" s="2"/>
     </row>
     <row r="192">
       <c r="A192" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="B192" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
+      </c>
+      <c r="B192" s="12" t="s">
+        <v>337</v>
       </c>
       <c r="C192" s="2"/>
     </row>
     <row r="193">
       <c r="A193" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="B193" s="7">
-        <v>27.0</v>
+        <v>338</v>
+      </c>
+      <c r="B193" s="12" t="s">
+        <v>339</v>
       </c>
       <c r="C193" s="2"/>
     </row>
     <row r="194">
-      <c r="A194" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B194" s="8" t="s">
-        <v>337</v>
+      <c r="A194" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B194" s="14" t="s">
+        <v>341</v>
       </c>
       <c r="C194" s="2"/>
     </row>
     <row r="195">
-      <c r="A195" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="B195" s="9" t="s">
-        <v>339</v>
+      <c r="A195" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>342</v>
       </c>
       <c r="C195" s="2"/>
     </row>
     <row r="196">
       <c r="A196" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>341</v>
+        <v>343</v>
+      </c>
+      <c r="B196" s="7">
+        <v>24.0</v>
       </c>
       <c r="C196" s="2"/>
     </row>
     <row r="197">
       <c r="A197" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B197" s="9" t="s">
-        <v>343</v>
+        <v>344</v>
+      </c>
+      <c r="B197" s="12" t="s">
+        <v>345</v>
       </c>
       <c r="C197" s="2"/>
     </row>
     <row r="198">
       <c r="A198" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="B198" s="7">
-        <v>28.0</v>
+        <v>346</v>
+      </c>
+      <c r="B198" s="12" t="s">
+        <v>347</v>
       </c>
       <c r="C198" s="2"/>
     </row>
     <row r="199">
       <c r="A199" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="B199" s="8" t="s">
-        <v>346</v>
+        <v>348</v>
+      </c>
+      <c r="B199" s="12" t="s">
+        <v>349</v>
       </c>
       <c r="C199" s="2"/>
     </row>
     <row r="200">
       <c r="A200" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B200" s="9" t="s">
-        <v>348</v>
+        <v>350</v>
+      </c>
+      <c r="B200" s="12" t="s">
+        <v>351</v>
       </c>
       <c r="C200" s="2"/>
     </row>
     <row r="201">
       <c r="A201" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B201" s="8" t="s">
-        <v>350</v>
+        <v>352</v>
+      </c>
+      <c r="B201" s="12" t="s">
+        <v>353</v>
       </c>
       <c r="C201" s="2"/>
     </row>
     <row r="202">
       <c r="A202" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="B202" s="8" t="s">
-        <v>352</v>
+        <v>354</v>
+      </c>
+      <c r="B202" s="7">
+        <v>25.0</v>
       </c>
       <c r="C202" s="2"/>
     </row>
     <row r="203">
       <c r="A203" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="B203" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
+      </c>
+      <c r="B203" s="12" t="s">
+        <v>356</v>
       </c>
       <c r="C203" s="2"/>
     </row>
     <row r="204">
       <c r="A204" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B204" s="7">
-        <v>29.0</v>
+        <v>7</v>
+      </c>
+      <c r="B204" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="C204" s="2"/>
     </row>
     <row r="205">
       <c r="A205" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="B205" s="8" t="s">
-        <v>346</v>
+        <v>295</v>
+      </c>
+      <c r="B205" s="12" t="s">
+        <v>296</v>
       </c>
       <c r="C205" s="2"/>
     </row>
     <row r="206">
       <c r="A206" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="B206" s="8" t="s">
-        <v>357</v>
+        <v>313</v>
+      </c>
+      <c r="B206" s="12" t="s">
+        <v>314</v>
       </c>
       <c r="C206" s="2"/>
     </row>
     <row r="207">
       <c r="A207" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="B207" s="8" t="s">
-        <v>359</v>
+        <v>315</v>
+      </c>
+      <c r="B207" s="12" t="s">
+        <v>316</v>
       </c>
       <c r="C207" s="2"/>
     </row>
     <row r="208">
       <c r="A208" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B208" s="8" t="s">
-        <v>46</v>
+        <v>317</v>
+      </c>
+      <c r="B208" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="C208" s="2"/>
     </row>
     <row r="209">
-      <c r="A209" s="7" t="s">
+      <c r="A209" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C209" s="2"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B210" s="11" t="s">
         <v>360</v>
-      </c>
-      <c r="B209" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C209" s="2"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="B210" s="8" t="s">
-        <v>362</v>
       </c>
       <c r="C210" s="2"/>
     </row>
     <row r="211">
       <c r="A211" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B211" s="7">
+        <v>26.0</v>
+      </c>
+      <c r="C211" s="2"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B212" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="B211" s="8" t="s">
+      <c r="C212" s="2"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="C211" s="2"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="7" t="s">
+      <c r="B213" s="9" t="s">
         <v>365</v>
-      </c>
-      <c r="B212" s="7">
-        <v>30.0</v>
-      </c>
-      <c r="C212" s="2"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="B213" s="8" t="s">
-        <v>367</v>
       </c>
       <c r="C213" s="2"/>
     </row>
     <row r="214">
       <c r="A214" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B214" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="C214" s="2"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B215" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="B214" s="9" t="s">
+      <c r="C215" s="2"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="C214" s="2"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="7" t="s">
+      <c r="B216" s="9" t="s">
         <v>370</v>
-      </c>
-      <c r="B215" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="C215" s="2"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="B216" s="9" t="s">
-        <v>373</v>
       </c>
       <c r="C216" s="2"/>
     </row>
     <row r="217">
       <c r="A217" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="B217" s="7">
-        <v>31.0</v>
+        <v>371</v>
+      </c>
+      <c r="B217" s="12" t="s">
+        <v>372</v>
       </c>
       <c r="C217" s="2"/>
     </row>
     <row r="218">
       <c r="A218" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="B218" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
+      </c>
+      <c r="B218" s="13" t="s">
+        <v>374</v>
       </c>
       <c r="C218" s="2"/>
     </row>
     <row r="219">
       <c r="A219" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B219" s="7">
+        <v>27.0</v>
+      </c>
+      <c r="C219" s="2"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C220" s="2"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B221" s="9" t="s">
         <v>377</v>
-      </c>
-      <c r="B219" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="C219" s="2"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="B220" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="C220" s="2"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="B221" s="8" t="s">
-        <v>382</v>
       </c>
       <c r="C221" s="2"/>
     </row>
     <row r="222">
       <c r="A222" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="B222" s="8" t="s">
-        <v>384</v>
+        <v>378</v>
+      </c>
+      <c r="B222" s="13" t="s">
+        <v>379</v>
       </c>
       <c r="C222" s="2"/>
     </row>
     <row r="223">
       <c r="A223" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="B223" s="8" t="s">
-        <v>386</v>
+        <v>380</v>
+      </c>
+      <c r="B223" s="12" t="s">
+        <v>381</v>
       </c>
       <c r="C223" s="2"/>
     </row>
     <row r="224">
       <c r="A224" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="B224" s="9" t="s">
-        <v>388</v>
+        <v>382</v>
+      </c>
+      <c r="B224" s="13" t="s">
+        <v>383</v>
       </c>
       <c r="C224" s="2"/>
     </row>
     <row r="225">
       <c r="A225" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B225" s="7">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="C225" s="2"/>
     </row>
     <row r="226">
       <c r="A226" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="B226" s="8" t="s">
-        <v>391</v>
+        <v>385</v>
+      </c>
+      <c r="B226" s="12" t="s">
+        <v>386</v>
       </c>
       <c r="C226" s="2"/>
     </row>
     <row r="227">
       <c r="A227" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="B227" s="9" t="s">
-        <v>393</v>
+        <v>387</v>
+      </c>
+      <c r="B227" s="13" t="s">
+        <v>388</v>
       </c>
       <c r="C227" s="2"/>
     </row>
     <row r="228">
       <c r="A228" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B228" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="C228" s="2"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C229" s="2"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B230" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="B228" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="C228" s="2"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="B229" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="C229" s="2"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="B230" s="8"/>
       <c r="C230" s="2"/>
     </row>
     <row r="231">
       <c r="A231" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="B231" s="7">
-        <v>33.0</v>
+        <v>395</v>
+      </c>
+      <c r="B231" s="12" t="s">
+        <v>396</v>
       </c>
       <c r="C231" s="2"/>
     </row>
     <row r="232">
       <c r="A232" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="B232" s="8" t="s">
-        <v>376</v>
+        <v>397</v>
+      </c>
+      <c r="B232" s="7">
+        <v>29.0</v>
       </c>
       <c r="C232" s="2"/>
     </row>
     <row r="233">
       <c r="A233" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="B233" s="9" t="s">
-        <v>401</v>
+        <v>385</v>
+      </c>
+      <c r="B233" s="12" t="s">
+        <v>386</v>
       </c>
       <c r="C233" s="2"/>
     </row>
     <row r="234">
       <c r="A234" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="B234" s="8" t="s">
-        <v>403</v>
+        <v>398</v>
+      </c>
+      <c r="B234" s="12" t="s">
+        <v>399</v>
       </c>
       <c r="C234" s="2"/>
     </row>
     <row r="235">
       <c r="A235" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="B235" s="8" t="s">
-        <v>405</v>
+        <v>400</v>
+      </c>
+      <c r="B235" s="12" t="s">
+        <v>401</v>
       </c>
       <c r="C235" s="2"/>
     </row>
     <row r="236">
       <c r="A236" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="B236" s="9" t="s">
-        <v>407</v>
+        <v>7</v>
+      </c>
+      <c r="B236" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="C236" s="2"/>
     </row>
     <row r="237">
       <c r="A237" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="B237" s="7">
-        <v>34.0</v>
+        <v>107</v>
+      </c>
+      <c r="B237" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="C237" s="2"/>
     </row>
     <row r="238">
       <c r="A238" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="B238" s="8" t="s">
-        <v>410</v>
+        <v>402</v>
+      </c>
+      <c r="B238" s="12" t="s">
+        <v>403</v>
       </c>
       <c r="C238" s="2"/>
     </row>
     <row r="239">
       <c r="A239" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="B239" s="8" t="s">
-        <v>412</v>
+        <v>404</v>
+      </c>
+      <c r="B239" s="12" t="s">
+        <v>405</v>
       </c>
       <c r="C239" s="2"/>
     </row>
     <row r="240">
       <c r="A240" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="B240" s="8" t="s">
-        <v>414</v>
+        <v>406</v>
+      </c>
+      <c r="B240" s="7">
+        <v>30.0</v>
       </c>
       <c r="C240" s="2"/>
     </row>
     <row r="241">
       <c r="A241" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="B241" s="8" t="s">
-        <v>416</v>
+        <v>407</v>
+      </c>
+      <c r="B241" s="12" t="s">
+        <v>408</v>
       </c>
       <c r="C241" s="2"/>
     </row>
     <row r="242">
       <c r="A242" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="B242" s="8" t="s">
-        <v>418</v>
+        <v>409</v>
+      </c>
+      <c r="B242" s="13" t="s">
+        <v>410</v>
       </c>
       <c r="C242" s="2"/>
     </row>
     <row r="243">
       <c r="A243" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="B243" s="7">
-        <v>35.0</v>
+        <v>411</v>
+      </c>
+      <c r="B243" s="12" t="s">
+        <v>412</v>
       </c>
       <c r="C243" s="2"/>
     </row>
     <row r="244">
-      <c r="A244" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="B244" s="8" t="s">
-        <v>421</v>
+      <c r="A244" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="B244" s="14" t="s">
+        <v>414</v>
       </c>
       <c r="C244" s="2"/>
     </row>
     <row r="245">
-      <c r="A245" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="B245" s="8" t="s">
-        <v>422</v>
+      <c r="A245" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="B245" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="C245" s="2"/>
     </row>
     <row r="246">
       <c r="A246" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="B246" s="8" t="s">
-        <v>424</v>
+        <v>417</v>
+      </c>
+      <c r="B246" s="7">
+        <v>31.0</v>
       </c>
       <c r="C246" s="2"/>
     </row>
     <row r="247">
       <c r="A247" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="B247" s="8" t="s">
-        <v>426</v>
+        <v>418</v>
+      </c>
+      <c r="B247" s="12" t="s">
+        <v>419</v>
       </c>
       <c r="C247" s="2"/>
     </row>
     <row r="248">
-      <c r="A248" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="B248" s="8" t="s">
-        <v>428</v>
+      <c r="A248" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B248" s="14" t="s">
+        <v>420</v>
       </c>
       <c r="C248" s="2"/>
     </row>
     <row r="249">
-      <c r="A249" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="B249" s="8" t="s">
-        <v>430</v>
+      <c r="A249" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B249" s="11" t="s">
+        <v>422</v>
       </c>
       <c r="C249" s="2"/>
     </row>
     <row r="250">
-      <c r="A250" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="B250" s="7">
-        <v>36.0</v>
+      <c r="A250" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B250" s="9" t="s">
+        <v>424</v>
       </c>
       <c r="C250" s="2"/>
     </row>
     <row r="251">
-      <c r="A251" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="B251" s="8" t="s">
-        <v>433</v>
+      <c r="A251" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B251" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="C251" s="2"/>
     </row>
     <row r="252">
       <c r="A252" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="B252" s="9" t="s">
-        <v>435</v>
+        <v>425</v>
+      </c>
+      <c r="B252" s="12" t="s">
+        <v>426</v>
       </c>
       <c r="C252" s="2"/>
     </row>
     <row r="253">
       <c r="A253" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="B253" s="8" t="s">
-        <v>437</v>
+        <v>427</v>
+      </c>
+      <c r="B253" s="12" t="s">
+        <v>428</v>
       </c>
       <c r="C253" s="2"/>
     </row>
     <row r="254">
       <c r="A254" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="B254" s="9" t="s">
-        <v>439</v>
+        <v>429</v>
+      </c>
+      <c r="B254" s="12" t="s">
+        <v>430</v>
       </c>
       <c r="C254" s="2"/>
     </row>
     <row r="255">
-      <c r="A255" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="B255" s="8" t="s">
-        <v>441</v>
+      <c r="A255" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="B255" s="14" t="s">
+        <v>432</v>
       </c>
       <c r="C255" s="2"/>
     </row>
     <row r="256">
-      <c r="A256" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="B256" s="8" t="s">
-        <v>443</v>
+      <c r="A256" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B256" s="11" t="s">
+        <v>434</v>
       </c>
       <c r="C256" s="2"/>
     </row>
     <row r="257">
       <c r="A257" s="7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B257" s="7">
-        <v>37.0</v>
+        <v>32.0</v>
       </c>
       <c r="C257" s="2"/>
     </row>
     <row r="258">
       <c r="A258" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B258" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="C258" s="2"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B259" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="C259" s="2"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="B260" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="C260" s="2"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B261" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C261" s="2"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="B262" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C262" s="2"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B263" s="11" t="s">
         <v>445</v>
-      </c>
-      <c r="B258" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C258" s="2"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="B259" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="C259" s="2"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="B260" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="C260" s="2"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B261" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="C261" s="2"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="B262" s="7">
-        <v>38.0</v>
-      </c>
-      <c r="C262" s="2"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="B263" s="8" t="s">
-        <v>454</v>
       </c>
       <c r="C263" s="2"/>
     </row>
     <row r="264">
       <c r="A264" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="B264" s="8" t="s">
-        <v>456</v>
+        <v>446</v>
+      </c>
+      <c r="B264" s="14" t="s">
+        <v>441</v>
       </c>
       <c r="C264" s="2"/>
     </row>
     <row r="265">
       <c r="A265" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="B265" s="8" t="s">
-        <v>458</v>
+        <v>447</v>
+      </c>
+      <c r="B265" s="11" t="s">
+        <v>448</v>
       </c>
       <c r="C265" s="2"/>
     </row>
     <row r="266">
       <c r="A266" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="B266" s="9" t="s">
-        <v>460</v>
+        <v>449</v>
+      </c>
+      <c r="B266" s="7">
+        <v>33.0</v>
       </c>
       <c r="C266" s="2"/>
     </row>
     <row r="267">
       <c r="A267" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="B267" s="9" t="s">
-        <v>462</v>
+        <v>418</v>
+      </c>
+      <c r="B267" s="12" t="s">
+        <v>419</v>
       </c>
       <c r="C267" s="2"/>
     </row>
     <row r="268">
       <c r="A268" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="B268" s="7">
-        <v>39.0</v>
+        <v>450</v>
+      </c>
+      <c r="B268" s="13" t="s">
+        <v>451</v>
       </c>
       <c r="C268" s="2"/>
     </row>
     <row r="269">
       <c r="A269" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="B269" s="8" t="s">
-        <v>465</v>
+        <v>452</v>
+      </c>
+      <c r="B269" s="12" t="s">
+        <v>453</v>
       </c>
       <c r="C269" s="2"/>
     </row>
     <row r="270">
       <c r="A270" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="B270" s="8" t="s">
-        <v>467</v>
+        <v>454</v>
+      </c>
+      <c r="B270" s="12" t="s">
+        <v>455</v>
       </c>
       <c r="C270" s="2"/>
     </row>
     <row r="271">
-      <c r="A271" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="B271" s="8" t="s">
-        <v>469</v>
+      <c r="A271" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B271" s="14" t="s">
+        <v>456</v>
       </c>
       <c r="C271" s="2"/>
     </row>
     <row r="272">
-      <c r="A272" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="B272" s="8" t="s">
-        <v>471</v>
+      <c r="A272" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B272" s="11" t="s">
+        <v>458</v>
       </c>
       <c r="C272" s="2"/>
     </row>
     <row r="273">
       <c r="A273" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="B273" s="8" t="s">
-        <v>473</v>
+        <v>459</v>
+      </c>
+      <c r="B273" s="7">
+        <v>34.0</v>
       </c>
       <c r="C273" s="2"/>
     </row>
     <row r="274">
       <c r="A274" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="B274" s="7">
-        <v>40.0</v>
+        <v>460</v>
+      </c>
+      <c r="B274" s="12" t="s">
+        <v>461</v>
       </c>
       <c r="C274" s="2"/>
     </row>
     <row r="275">
       <c r="A275" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="B275" s="9" t="s">
-        <v>476</v>
+        <v>462</v>
+      </c>
+      <c r="B275" s="12" t="s">
+        <v>463</v>
       </c>
       <c r="C275" s="2"/>
     </row>
     <row r="276">
       <c r="A276" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="B276" s="8" t="s">
-        <v>403</v>
+        <v>464</v>
+      </c>
+      <c r="B276" s="12" t="s">
+        <v>465</v>
       </c>
       <c r="C276" s="2"/>
     </row>
     <row r="277">
       <c r="A277" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="B277" s="8" t="s">
-        <v>478</v>
+        <v>466</v>
+      </c>
+      <c r="B277" s="12" t="s">
+        <v>467</v>
       </c>
       <c r="C277" s="2"/>
     </row>
     <row r="278">
       <c r="A278" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="B278" s="8" t="s">
-        <v>480</v>
+        <v>468</v>
+      </c>
+      <c r="B278" s="12" t="s">
+        <v>469</v>
       </c>
       <c r="C278" s="2"/>
     </row>
     <row r="279">
       <c r="A279" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="B279" s="9" t="s">
-        <v>482</v>
+        <v>470</v>
+      </c>
+      <c r="B279" s="7">
+        <v>35.0</v>
       </c>
       <c r="C279" s="2"/>
     </row>
     <row r="280">
       <c r="A280" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="B280" s="7">
-        <v>41.0</v>
+        <v>471</v>
+      </c>
+      <c r="B280" s="12" t="s">
+        <v>472</v>
       </c>
       <c r="C280" s="2"/>
     </row>
     <row r="281">
       <c r="A281" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="B281" s="8" t="s">
-        <v>485</v>
+        <v>317</v>
+      </c>
+      <c r="B281" s="12" t="s">
+        <v>473</v>
       </c>
       <c r="C281" s="2"/>
     </row>
     <row r="282">
       <c r="A282" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="B282" s="8" t="s">
-        <v>487</v>
+        <v>474</v>
+      </c>
+      <c r="B282" s="12" t="s">
+        <v>475</v>
       </c>
       <c r="C282" s="2"/>
     </row>
     <row r="283">
       <c r="A283" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="B283" s="8" t="s">
-        <v>489</v>
+        <v>476</v>
+      </c>
+      <c r="B283" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="C283" s="2"/>
     </row>
     <row r="284">
-      <c r="A284" s="7" t="s">
-        <v>490</v>
+      <c r="A284" s="8" t="s">
+        <v>478</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="C284" s="2"/>
     </row>
     <row r="285">
-      <c r="A285" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="B285" s="8" t="s">
-        <v>493</v>
+      <c r="A285" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="B285" s="11" t="s">
+        <v>481</v>
       </c>
       <c r="C285" s="2"/>
     </row>
     <row r="286">
       <c r="A286" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="B286" s="7">
-        <v>42.0</v>
+        <v>482</v>
+      </c>
+      <c r="B286" s="12" t="s">
+        <v>483</v>
       </c>
       <c r="C286" s="2"/>
     </row>
     <row r="287">
       <c r="A287" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="B287" s="8" t="s">
-        <v>496</v>
+        <v>484</v>
+      </c>
+      <c r="B287" s="7">
+        <v>36.0</v>
       </c>
       <c r="C287" s="2"/>
     </row>
     <row r="288">
       <c r="A288" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="B288" s="9" t="s">
-        <v>498</v>
+        <v>485</v>
+      </c>
+      <c r="B288" s="12" t="s">
+        <v>486</v>
       </c>
       <c r="C288" s="2"/>
     </row>
     <row r="289">
-      <c r="A289" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="B289" s="8" t="s">
-        <v>500</v>
+      <c r="A289" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B289" s="14" t="s">
+        <v>487</v>
       </c>
       <c r="C289" s="2"/>
     </row>
     <row r="290">
-      <c r="A290" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="B290" s="8" t="s">
-        <v>502</v>
+      <c r="A290" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="B290" s="11" t="s">
+        <v>489</v>
       </c>
       <c r="C290" s="2"/>
     </row>
     <row r="291">
       <c r="A291" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="B291" s="7">
-        <v>43.0</v>
+        <v>490</v>
+      </c>
+      <c r="B291" s="12" t="s">
+        <v>491</v>
       </c>
       <c r="C291" s="2"/>
     </row>
     <row r="292">
       <c r="A292" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="B292" s="8" t="s">
-        <v>505</v>
+        <v>492</v>
+      </c>
+      <c r="B292" s="13" t="s">
+        <v>493</v>
       </c>
       <c r="C292" s="2"/>
     </row>
     <row r="293">
       <c r="A293" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="B293" s="8" t="s">
-        <v>507</v>
+        <v>494</v>
+      </c>
+      <c r="B293" s="12" t="s">
+        <v>495</v>
       </c>
       <c r="C293" s="2"/>
     </row>
     <row r="294">
       <c r="A294" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="B294" s="8" t="s">
-        <v>509</v>
+        <v>496</v>
+      </c>
+      <c r="B294" s="12" t="s">
+        <v>497</v>
       </c>
       <c r="C294" s="2"/>
     </row>
     <row r="295">
       <c r="A295" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="B295" s="9" t="s">
-        <v>511</v>
+        <v>498</v>
+      </c>
+      <c r="B295" s="7">
+        <v>37.0</v>
       </c>
       <c r="C295" s="2"/>
     </row>
     <row r="296">
       <c r="A296" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="B296" s="8" t="s">
-        <v>513</v>
+        <v>499</v>
+      </c>
+      <c r="B296" s="13" t="s">
+        <v>500</v>
       </c>
       <c r="C296" s="2"/>
     </row>
     <row r="297">
-      <c r="A297" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="B297" s="7">
-        <v>44.0</v>
+      <c r="A297" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="B297" s="14" t="s">
+        <v>502</v>
       </c>
       <c r="C297" s="2"/>
     </row>
     <row r="298">
-      <c r="A298" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="B298" s="9" t="s">
-        <v>516</v>
+      <c r="A298" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B298" s="11" t="s">
+        <v>504</v>
       </c>
       <c r="C298" s="2"/>
     </row>
     <row r="299">
       <c r="A299" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="B299" s="9" t="s">
-        <v>518</v>
+        <v>505</v>
+      </c>
+      <c r="B299" s="13" t="s">
+        <v>506</v>
       </c>
       <c r="C299" s="2"/>
     </row>
     <row r="300">
       <c r="A300" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="B300" s="9" t="s">
-        <v>520</v>
+        <v>507</v>
+      </c>
+      <c r="B300" s="12" t="s">
+        <v>463</v>
       </c>
       <c r="C300" s="2"/>
     </row>
     <row r="301">
       <c r="A301" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="B301" s="8" t="s">
-        <v>522</v>
+        <v>508</v>
+      </c>
+      <c r="B301" s="7">
+        <v>38.0</v>
       </c>
       <c r="C301" s="2"/>
     </row>
     <row r="302">
       <c r="A302" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="B302" s="8" t="s">
-        <v>524</v>
+        <v>509</v>
+      </c>
+      <c r="B302" s="12" t="s">
+        <v>510</v>
       </c>
       <c r="C302" s="2"/>
     </row>
     <row r="303">
       <c r="A303" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="B303" s="8" t="s">
-        <v>526</v>
+        <v>511</v>
+      </c>
+      <c r="B303" s="12" t="s">
+        <v>512</v>
       </c>
       <c r="C303" s="2"/>
     </row>
     <row r="304">
       <c r="A304" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="B304" s="8" t="s">
-        <v>528</v>
+        <v>513</v>
+      </c>
+      <c r="B304" s="12" t="s">
+        <v>514</v>
       </c>
       <c r="C304" s="2"/>
     </row>
     <row r="305">
-      <c r="A305" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="B305" s="7">
-        <v>45.0</v>
+      <c r="A305" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="B305" s="11" t="s">
+        <v>516</v>
       </c>
       <c r="C305" s="2"/>
     </row>
     <row r="306">
-      <c r="A306" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="B306" s="8" t="s">
-        <v>531</v>
+      <c r="A306" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B306" s="14" t="s">
+        <v>518</v>
       </c>
       <c r="C306" s="2"/>
     </row>
     <row r="307">
-      <c r="A307" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="B307" s="8" t="s">
-        <v>533</v>
+      <c r="A307" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="B307" s="14" t="s">
+        <v>520</v>
       </c>
       <c r="C307" s="2"/>
     </row>
     <row r="308">
-      <c r="A308" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="B308" s="8" t="s">
-        <v>535</v>
+      <c r="A308" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="B308" s="11" t="s">
+        <v>522</v>
       </c>
       <c r="C308" s="2"/>
     </row>
     <row r="309">
       <c r="A309" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="B309" s="8" t="s">
-        <v>537</v>
+        <v>523</v>
+      </c>
+      <c r="B309" s="7">
+        <v>39.0</v>
       </c>
       <c r="C309" s="2"/>
     </row>
     <row r="310">
       <c r="A310" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="B310" s="7">
-        <v>46.0</v>
+        <v>524</v>
+      </c>
+      <c r="B310" s="12" t="s">
+        <v>525</v>
       </c>
       <c r="C310" s="2"/>
     </row>
     <row r="311">
       <c r="A311" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="B311" s="8" t="s">
-        <v>540</v>
+        <v>526</v>
+      </c>
+      <c r="B311" s="12" t="s">
+        <v>527</v>
       </c>
       <c r="C311" s="2"/>
     </row>
     <row r="312">
       <c r="A312" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="B312" s="8" t="s">
-        <v>542</v>
+        <v>528</v>
+      </c>
+      <c r="B312" s="12" t="s">
+        <v>529</v>
       </c>
       <c r="C312" s="2"/>
     </row>
     <row r="313">
       <c r="A313" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="B313" s="8" t="s">
-        <v>544</v>
+        <v>530</v>
+      </c>
+      <c r="B313" s="12" t="s">
+        <v>531</v>
       </c>
       <c r="C313" s="2"/>
     </row>
     <row r="314">
-      <c r="A314" s="7" t="s">
-        <v>545</v>
+      <c r="A314" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>546</v>
+        <v>173</v>
       </c>
       <c r="C314" s="2"/>
     </row>
     <row r="315">
-      <c r="A315" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="B315" s="7">
-        <v>47.0</v>
+      <c r="A315" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="B315" s="11" t="s">
+        <v>463</v>
       </c>
       <c r="C315" s="2"/>
     </row>
     <row r="316">
       <c r="A316" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="B316" s="8" t="s">
-        <v>549</v>
+        <v>533</v>
+      </c>
+      <c r="B316" s="7">
+        <v>40.0</v>
       </c>
       <c r="C316" s="2"/>
     </row>
     <row r="317">
       <c r="A317" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="B317" s="9" t="s">
-        <v>551</v>
+        <v>534</v>
+      </c>
+      <c r="B317" s="13" t="s">
+        <v>535</v>
       </c>
       <c r="C317" s="2"/>
     </row>
     <row r="318">
       <c r="A318" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="B318" s="8" t="s">
-        <v>553</v>
+        <v>536</v>
+      </c>
+      <c r="B318" s="12" t="s">
+        <v>453</v>
       </c>
       <c r="C318" s="2"/>
     </row>
     <row r="319">
       <c r="A319" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="B319" s="9" t="s">
-        <v>555</v>
+        <v>474</v>
+      </c>
+      <c r="B319" s="12" t="s">
+        <v>537</v>
       </c>
       <c r="C319" s="2"/>
     </row>
     <row r="320">
       <c r="A320" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="B320" s="7">
-        <v>48.0</v>
+        <v>538</v>
+      </c>
+      <c r="B320" s="12" t="s">
+        <v>539</v>
       </c>
       <c r="C320" s="2"/>
     </row>
     <row r="321">
-      <c r="A321" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="B321" s="8" t="s">
-        <v>376</v>
+      <c r="A321" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="B321" s="14" t="s">
+        <v>541</v>
       </c>
       <c r="C321" s="2"/>
     </row>
     <row r="322">
-      <c r="A322" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="B322" s="9" t="s">
-        <v>558</v>
+      <c r="A322" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="B322" s="11" t="s">
+        <v>543</v>
       </c>
       <c r="C322" s="2"/>
     </row>
     <row r="323">
       <c r="A323" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="B323" s="8" t="s">
-        <v>560</v>
+        <v>544</v>
+      </c>
+      <c r="B323" s="7">
+        <v>41.0</v>
       </c>
       <c r="C323" s="2"/>
     </row>
     <row r="324">
       <c r="A324" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="B324" s="8" t="s">
-        <v>562</v>
+        <v>545</v>
+      </c>
+      <c r="B324" s="12" t="s">
+        <v>546</v>
       </c>
       <c r="C324" s="2"/>
     </row>
     <row r="325">
       <c r="A325" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="B325" s="8" t="s">
-        <v>564</v>
+        <v>547</v>
+      </c>
+      <c r="B325" s="12" t="s">
+        <v>548</v>
       </c>
       <c r="C325" s="2"/>
     </row>
     <row r="326">
       <c r="A326" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="B326" s="7">
-        <v>49.0</v>
+        <v>549</v>
+      </c>
+      <c r="B326" s="12" t="s">
+        <v>550</v>
       </c>
       <c r="C326" s="2"/>
     </row>
     <row r="327">
       <c r="A327" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="B327" s="9" t="s">
-        <v>567</v>
+        <v>551</v>
+      </c>
+      <c r="B327" s="13" t="s">
+        <v>552</v>
       </c>
       <c r="C327" s="2"/>
     </row>
     <row r="328">
       <c r="A328" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="B328" s="8" t="s">
-        <v>569</v>
+        <v>553</v>
+      </c>
+      <c r="B328" s="12" t="s">
+        <v>522</v>
       </c>
       <c r="C328" s="2"/>
     </row>
     <row r="329">
       <c r="A329" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="B329" s="9" t="s">
-        <v>571</v>
+        <v>554</v>
+      </c>
+      <c r="B329" s="7">
+        <v>42.0</v>
       </c>
       <c r="C329" s="2"/>
     </row>
     <row r="330">
       <c r="A330" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="B330" s="9" t="s">
-        <v>573</v>
+        <v>555</v>
+      </c>
+      <c r="B330" s="12" t="s">
+        <v>556</v>
       </c>
       <c r="C330" s="2"/>
     </row>
     <row r="331">
       <c r="A331" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="B331" s="8" t="s">
-        <v>575</v>
+        <v>557</v>
+      </c>
+      <c r="B331" s="13" t="s">
+        <v>558</v>
       </c>
       <c r="C331" s="2"/>
     </row>
     <row r="332">
       <c r="A332" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="B332" s="8" t="s">
-        <v>577</v>
+        <v>559</v>
+      </c>
+      <c r="B332" s="12" t="s">
+        <v>560</v>
       </c>
       <c r="C332" s="2"/>
     </row>
     <row r="333">
-      <c r="A333" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="B333" s="8" t="s">
-        <v>274</v>
+      <c r="A333" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="B333" s="9" t="s">
+        <v>561</v>
       </c>
       <c r="C333" s="2"/>
     </row>
     <row r="334">
-      <c r="A334" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="B334" s="7">
-        <v>50.0</v>
+      <c r="A334" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="B334" s="11" t="s">
+        <v>563</v>
       </c>
       <c r="C334" s="2"/>
     </row>
     <row r="335">
       <c r="A335" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="B335" s="8" t="s">
-        <v>581</v>
+        <v>564</v>
+      </c>
+      <c r="B335" s="7">
+        <v>43.0</v>
       </c>
       <c r="C335" s="2"/>
     </row>
     <row r="336">
       <c r="A336" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="B336" s="9" t="s">
-        <v>583</v>
+        <v>565</v>
+      </c>
+      <c r="B336" s="12" t="s">
+        <v>566</v>
       </c>
       <c r="C336" s="2"/>
     </row>
     <row r="337">
       <c r="A337" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="B337" s="8" t="s">
-        <v>585</v>
+        <v>567</v>
+      </c>
+      <c r="B337" s="12" t="s">
+        <v>568</v>
       </c>
       <c r="C337" s="2"/>
     </row>
     <row r="338">
       <c r="A338" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B338" s="8" t="s">
-        <v>46</v>
+        <v>569</v>
+      </c>
+      <c r="B338" s="12" t="s">
+        <v>570</v>
       </c>
       <c r="C338" s="2"/>
     </row>
     <row r="339">
       <c r="A339" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="B339" s="8" t="s">
-        <v>587</v>
+        <v>571</v>
+      </c>
+      <c r="B339" s="13" t="s">
+        <v>572</v>
       </c>
       <c r="C339" s="2"/>
     </row>
     <row r="340">
       <c r="A340" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="B340" s="8" t="s">
-        <v>589</v>
+        <v>573</v>
+      </c>
+      <c r="B340" s="12" t="s">
+        <v>574</v>
       </c>
       <c r="C340" s="2"/>
     </row>
     <row r="341">
       <c r="A341" s="7" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="B341" s="7">
-        <v>51.0</v>
+        <v>44.0</v>
       </c>
       <c r="C341" s="2"/>
     </row>
     <row r="342">
       <c r="A342" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="B342" s="8" t="s">
-        <v>592</v>
+        <v>576</v>
+      </c>
+      <c r="B342" s="13" t="s">
+        <v>577</v>
       </c>
       <c r="C342" s="2"/>
     </row>
     <row r="343">
       <c r="A343" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="B343" s="9" t="s">
-        <v>594</v>
+        <v>578</v>
+      </c>
+      <c r="B343" s="13" t="s">
+        <v>579</v>
       </c>
       <c r="C343" s="2"/>
     </row>
     <row r="344">
       <c r="A344" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="B344" s="8" t="s">
-        <v>596</v>
+        <v>580</v>
+      </c>
+      <c r="B344" s="13" t="s">
+        <v>581</v>
       </c>
       <c r="C344" s="2"/>
     </row>
     <row r="345">
-      <c r="A345" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="B345" s="8" t="s">
-        <v>598</v>
+      <c r="A345" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="B345" s="9" t="s">
+        <v>583</v>
       </c>
       <c r="C345" s="2"/>
     </row>
     <row r="346">
-      <c r="A346" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="B346" s="9" t="s">
-        <v>600</v>
+      <c r="A346" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="B346" s="11" t="s">
+        <v>585</v>
       </c>
       <c r="C346" s="2"/>
     </row>
     <row r="347">
       <c r="A347" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="B347" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="C347" s="2"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="B348" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="C348" s="2"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="B349" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C349" s="2"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="B350" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="C350" s="2"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="B351" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="C351" s="2"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="B352" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="C352" s="2"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="B353" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="C353" s="2"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="B354" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="C354" s="2"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="B355" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="C355" s="2"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="B356" s="7">
+        <v>46.0</v>
+      </c>
+      <c r="C356" s="2"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="B357" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="C357" s="2"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="B358" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="C358" s="2"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="B359" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="C359" s="2"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="B360" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="C360" s="2"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="B361" s="7">
+        <v>47.0</v>
+      </c>
+      <c r="C361" s="2"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B362" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="C362" s="2"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="B363" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="C363" s="2"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B364" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C364" s="2"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="B365" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="C365" s="2"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="B366" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="C366" s="2"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="B367" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="C367" s="2"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="B368" s="7">
+        <v>48.0</v>
+      </c>
+      <c r="C368" s="2"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B369" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="C369" s="2"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="B370" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="C370" s="2"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="B371" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="C371" s="2"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B372" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C372" s="2"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="B373" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="C373" s="2"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="B374" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="C374" s="2"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="B375" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="C375" s="2"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="B376" s="7">
+        <v>49.0</v>
+      </c>
+      <c r="C376" s="2"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="B377" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="C377" s="2"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="B378" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="C378" s="2"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="B379" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="C379" s="2"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="B380" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="C380" s="2"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="B381" s="13" t="s">
+        <v>642</v>
+      </c>
+      <c r="C381" s="2"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="B382" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="C382" s="2"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="B383" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="C383" s="2"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="B384" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C384" s="2"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="B385" s="7">
+        <v>50.0</v>
+      </c>
+      <c r="C385" s="2"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="B386" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="C386" s="2"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="B387" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="C387" s="2"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="B388" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="C388" s="2"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B389" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C389" s="2"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="B390" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="C390" s="2"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="B391" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="C391" s="2"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="B392" s="7">
+        <v>51.0</v>
+      </c>
+      <c r="C392" s="2"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="B393" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="C393" s="2"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="B394" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="C394" s="2"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="B395" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="C395" s="2"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="B396" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="C396" s="2"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="B397" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="C397" s="2"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="B398" s="13" t="s">
+        <v>671</v>
+      </c>
+      <c r="C398" s="2"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B347" s="8" t="s">
-        <v>601</v>
-      </c>
-      <c r="C347" s="2"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="B348" s="8" t="s">
-        <v>603</v>
-      </c>
-      <c r="C348" s="2"/>
-    </row>
-    <row r="349">
-      <c r="A349" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="B349" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="C349" s="2"/>
+      <c r="B399" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="C399" s="2"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="B400" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="C400" s="2"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="B401" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="C401" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
